--- a/dish_data/add_dish.xlsx
+++ b/dish_data/add_dish.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_gorecki\Desktop\Github\TIQDiet\dish_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_gorecki\Desktop\Github\TiqDiet\TiqDiet\dish_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34CDA53-1367-4FBC-AFB4-BBDA81DB9E1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B86C31-991A-4CAE-B8EB-AC4346E5591D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
   <si>
     <t>Nazwa dania</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Bran cereal</t>
   </si>
   <si>
-    <t>1,5</t>
-  </si>
-  <si>
     <t>cup</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>Coconut oil</t>
   </si>
   <si>
-    <t>0,3</t>
-  </si>
-  <si>
     <t>Egg</t>
   </si>
   <si>
@@ -75,15 +69,9 @@
     <t>Brown sugar</t>
   </si>
   <si>
-    <t>0,7</t>
-  </si>
-  <si>
     <t>Vanilla extract</t>
   </si>
   <si>
-    <t>0,5</t>
-  </si>
-  <si>
     <t>teaspoon</t>
   </si>
   <si>
@@ -118,13 +106,52 @@
   </si>
   <si>
     <t>Komentarz:</t>
+  </si>
+  <si>
+    <t>test_mateusz_pozytywny</t>
+  </si>
+  <si>
+    <t>Chleb pszenny</t>
+  </si>
+  <si>
+    <t>kromka</t>
+  </si>
+  <si>
+    <t>Sok z aceroli</t>
+  </si>
+  <si>
+    <t>szklanka</t>
+  </si>
+  <si>
+    <t>Heat oil and butter in a large skillet over medium heat. Add onions and salt; cook, stirring occasionally, for 5 minutes. Add thyme; reduce heat to medium-low and continue cooking, stirring occasionally, until golden brown, 20 to 30 minutes more. (Add a tablespoon or two of water during cooking if the pan seems dry). Spread each piece of toast with 1 tablespoon goat cheese. Top with 1/4 cup onions and sprinkle with pepper and more thyme, if desired.</t>
+  </si>
+  <si>
+    <t>Śniadanie, II Śniadanie</t>
+  </si>
+  <si>
+    <t>Serving: 4 / Preparation time: 50 minutes</t>
+  </si>
+  <si>
+    <t>test_mateusz_negatywny</t>
+  </si>
+  <si>
+    <t>Sok z aceroli 2</t>
+  </si>
+  <si>
+    <t>test_mateusz_pozytywny2_select_miara</t>
+  </si>
+  <si>
+    <t>Jabłko odmiana fiji</t>
+  </si>
+  <si>
+    <t>średnie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,16 +186,38 @@
       <color theme="1"/>
       <name val="Lato"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Lato"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -228,20 +277,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF434343"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF434343"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF434343"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF434343"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF434343"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF434343"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -255,11 +332,73 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -560,226 +699,545 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6">
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="1:5" ht="25.5">
+      <c r="A14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6">
+      <c r="B19" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6">
+      <c r="C19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6">
+      <c r="D19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6">
+      <c r="E19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8">
+        <v>1</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8">
+        <v>2</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="12">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="26.25">
+      <c r="A22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="B22" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+    </row>
+    <row r="23" spans="1:5" ht="26.25">
+      <c r="A23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="25.5">
-      <c r="A13" s="9" t="s">
+      <c r="B23" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="25.5">
-      <c r="A14" s="11" t="s">
+      <c r="B24" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="11" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="17">
+        <v>1</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C29" s="21">
+        <v>1</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="17">
+        <v>2</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="21">
+        <v>1</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="26.25">
+      <c r="A31" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35"/>
+    </row>
+    <row r="32" spans="1:5" ht="26.25">
+      <c r="A32" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="8">
+        <v>1</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="12">
+        <v>1</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="8">
+        <v>2</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="12">
+        <v>1</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="26.25">
+      <c r="A40" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+    </row>
+    <row r="41" spans="1:5" ht="26.25">
+      <c r="A41" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="31"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="20">
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
